--- a/biology/Botanique/Olea_woodiana/Olea_woodiana.xlsx
+++ b/biology/Botanique/Olea_woodiana/Olea_woodiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea woodiana, connu communément comme l’Olivier forestier ou Bois de fer noir (en Afrikaans : Bosolienhout), est un arbre africain appartenant à la famille des oliviers (Oleaceae).
-L’arbre est répandu en Afrique de l'Est, installé dans les forêts des collines du  Kenya, Tanzanie et Swaziland, de l'est de l'Afrique du Sud[2].
+L’arbre est répandu en Afrique de l'Est, installé dans les forêts des collines du  Kenya, Tanzanie et Swaziland, de l'est de l'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -514,11 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Olea woodiana est un arbre de taille moyenne à grande[3].
-Appareil reproducteur
-Les inflorescences axillaires ou terminales portent de petites fleurs blanches, très odorantes[4].
-Les fruits sont produits tard dans l'été[3]. Ils sont de forme ovale et mûrissent couleur pourpre à rouge ; ils sont consommés par les oiseaux[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olea woodiana est un arbre de taille moyenne à grande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Olea_woodiana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_woodiana</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les inflorescences axillaires ou terminales portent de petites fleurs blanches, très odorantes.
+Les fruits sont produits tard dans l'été. Ils sont de forme ovale et mûrissent couleur pourpre à rouge ; ils sont consommés par les oiseaux.
 Sous-espèces
 Il y a deux sous-espèces:
 Olea woodiana subsp. disjuncta — au nord.
@@ -526,31 +578,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Olea_woodiana</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_woodiana</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Olea woodiana » (voir la liste des auteurs).</t>
         </is>
